--- a/Texas/SiteSpecificAmounts/ProcessedInputData/sites_missing.xlsx
+++ b/Texas/SiteSpecificAmounts/ProcessedInputData/sites_missing.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,11 +468,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4068</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TXss_WS249,TXss_WS91,TXss_WS73,TXss_WS223,TXss_WS6,TXss_WS207,TXss_WS26,TXss_WS4,TXss_WS311,TXss_WS210,TXss_WS500,TXss_WS505,TXss_WS82,TXss_WS176,TXss_WS75,TXss_WS430,TXss_WS476,TXss_WS530,TXss_WS185,TXss_WS460,TXss_WS325,TXss_WS25,TXss_WS474,TXss_WS348,TXss_WS534,TXss_WS126,TXss_WS270,TXss_WS537,TXss_WS461,TXss_WS186,TXss_WS28,TXss_WS134,TXss_WS180,TXss_WS144,TXss_WS1,TXss_WS429,TXss_WS57,TXss_WS197,TXss_WS153,TXss_WS581,TXss_WS160,TXss_WS399,TXss_WS96,TXss_WS234,TXss_WS16,TXss_WS187,TXss_WS64,TXss_WS58,TXss_WS425,TXss_WS481,TXss_WS492,TXss_WS432,TXss_WS142,TXss_WS272,TXss_WS497,TXss_WS2,TXss_WS145,TXss_WS182,TXss_WS251,TXss_WS150,TXss_WS110,TXss_WS329,TXss_WS59,TXss_WS337,TXss_WS177,TXss_WS81,TXss_WS151,TXss_WS264,TXss_WS262,TXss_WS3,TXss_WS200,TXss_WS246,TXss_WS259,TXss_WS50,TXss_WS336,TXss_WS60,TXss_WS146,TXss_WS331,TXss_WS8,TXss_WS7,TXss_WS472,TXss_WS148,TXss_WS214,TXss_WS256,TXss_WS156,TXss_WS320,TXss_WS244,TXss_WS338,TXss_WS451,TXss_WS566,TXss_WS531,TXss_WS458,TXss_WS147,TXss_WS231,TXss_WS101,TXss_WS568,TXss_WS29,TXss_WS167,TXss_WS307,TXss_WS549,TXss_WS92,TXss_WS253,TXss_WS171,TXss_WS344,TXss_WS255,TXss_WS164,TXss_WS349,TXss_WS196,TXss_WS204,TXss_WS56,TXss_WS44,TXss_WS564,TXss_WS173,TXss_WS601,TXss_WS303,TXss_WS23,TXss_WS321,TXss_WS444,TXss_WS77,TXss_WS245,TXss_WS252,TXss_WS68,TXss_WS535,TXss_WS243,TXss_WS184,TXss_WS123,TXss_WS113,TXss_WS247,TXss_WS63,TXss_WS330,TXss_WS66,TXss_WS312,TXss_WS424</t>
+          <t>TXss_WS110,TXss_WS530,TXss_WS256,TXss_WS336,TXss_WS3,TXss_WS7,TXss_WS63,TXss_WS1,TXss_WS253,TXss_WS458,TXss_WS568,TXss_WS82,TXss_WS96,TXss_WS531,TXss_WS147,TXss_WS44,TXss_WS64,TXss_WS246,TXss_WS25,TXss_WS312,TXss_WS255,TXss_WS430,TXss_WS184,TXss_WS262,TXss_WS451,TXss_WS180,TXss_WS500,TXss_WS492,TXss_WS173,TXss_WS73,TXss_WS432,TXss_WS77,TXss_WS566,TXss_WS145,TXss_WS182,TXss_WS29,TXss_WS200,TXss_WS307,TXss_WS349,TXss_WS186,TXss_WS329,TXss_WS476,TXss_WS474,TXss_WS330,TXss_WS58,TXss_WS259,TXss_WS424,TXss_WS243,TXss_WS66,TXss_WS2,TXss_WS537,TXss_WS156,TXss_WS171,TXss_WS549,TXss_WS270,TXss_WS325,TXss_WS207,TXss_WS505,TXss_WS249,TXss_WS185,TXss_WS164,TXss_WS214,TXss_WS338,TXss_WS101,TXss_WS535,TXss_WS534,TXss_WS167,TXss_WS176,TXss_WS303,TXss_WS187,TXss_WS320,TXss_WS311,TXss_WS126,TXss_WS425,TXss_WS150,TXss_WS264,TXss_WS81,TXss_WS144,TXss_WS123,TXss_WS204,TXss_WS92,TXss_WS251,TXss_WS252,TXss_WS148,TXss_WS4,TXss_WS113,TXss_WS153,TXss_WS223,TXss_WS142,TXss_WS57,TXss_WS348,TXss_WS444,TXss_WS160,TXss_WS210,TXss_WS247,TXss_WS272,TXss_WS461,TXss_WS28,TXss_WS50,TXss_WS231,TXss_WS177,TXss_WS399,TXss_WS196,TXss_WS197,TXss_WS344,TXss_WS68,TXss_WS59,TXss_WS151,TXss_WS16,TXss_WS56,TXss_WS75,TXss_WS481,TXss_WS497,TXss_WS321,TXss_WS91,TXss_WS581,TXss_WS146,TXss_WS6,TXss_WS26,TXss_WS331,TXss_WS564,TXss_WS429,TXss_WS8,TXss_WS134,TXss_WS23,TXss_WS244,TXss_WS337,TXss_WS472,TXss_WS245,TXss_WS460,TXss_WS234,TXss_WS60</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BELL,CORYELL</t>
+          <t>CORYELL,BELL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -506,7 +506,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BLANCO,COMAL</t>
+          <t>COMAL,BLANCO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BURNET,TRAVIS</t>
+          <t>TRAVIS,BURNET</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -574,7 +574,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BEXAR,COMAL</t>
+          <t>COMAL,BEXAR</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -591,7 +591,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BEXAR,COMAL</t>
+          <t>COMAL,BEXAR</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>KENDALL,COMAL</t>
+          <t>COMAL,KENDALL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ROBERTSON,FALLS</t>
+          <t>FALLS,ROBERTSON</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -676,7 +676,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BEXAR,GILLESPIE</t>
+          <t>GILLESPIE,BEXAR</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -689,11 +689,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GUADALUPE,COMAL</t>
+          <t>COMAL,GUADALUPE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -757,11 +757,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2527</v>
+        <v>2519</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>POLK,LIBERTY</t>
+          <t>LIBERTY,POLK</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -774,11 +774,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549</v>
+        <v>2541</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ELLIS,LIBERTY</t>
+          <t>LIBERTY,ELLIS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -791,11 +791,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2566</v>
+        <v>2558</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MONTGOMERY,LIBERTY</t>
+          <t>LIBERTY,MONTGOMERY</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2611</v>
+        <v>2603</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BURNET,LLANO</t>
+          <t>LLANO,BURNET</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2708</v>
+        <v>2700</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2943</v>
+        <v>2934</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -859,11 +859,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3309</v>
+        <v>3300</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>POLK,SAN JACINTO</t>
+          <t>SAN JACINTO,POLK</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -876,11 +876,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3312</v>
+        <v>3303</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>POLK,SAN JACINTO</t>
+          <t>SAN JACINTO,POLK</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -893,11 +893,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3316</v>
+        <v>3307</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>JOHNSON,POLK</t>
+          <t>POLK,JOHNSON</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3329</v>
+        <v>3320</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3359</v>
+        <v>3350</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -944,11 +944,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3374</v>
+        <v>3365</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ROBERTSON,BURLESON</t>
+          <t>BURLESON,ROBERTSON</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -961,11 +961,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3424</v>
+        <v>3415</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SABINE,JASPER</t>
+          <t>JASPER,SABINE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -978,11 +978,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3476</v>
+        <v>3467</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TRINITY,SAN JACINTO</t>
+          <t>SAN JACINTO,TRINITY</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -995,11 +995,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3645</v>
+        <v>3635</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JOHNSON,TARRANT</t>
+          <t>TARRANT,JOHNSON</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3986</v>
+        <v>3974</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3989</v>
+        <v>3977</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1038,6 +1038,19 @@
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Incomplete Latitude</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
